--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2922282.235786795</v>
+        <v>2917657.827871241</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11362666.28527831</v>
+        <v>11362666.28527832</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.710907708664856</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>33.93991247395533</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>33.93991247395533</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.79717485420766</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,26 +740,26 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>29.89427490705984</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -825,61 +825,61 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>29.89427490705985</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="T4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="V4" t="n">
-        <v>29.89427490705984</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>33.89412103271894</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>38.48106384277808</v>
+        <v>27.0180752910075</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -974,67 +974,67 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38.48106384277808</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>33.89412103271894</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="U6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="V6" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>126.9312926994311</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.331806351614</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>175.331806351614</v>
+        <v>175.3318063516142</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>150.5709327933336</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589335081</v>
+        <v>52.26183589335066</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>175.3318063516142</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>95.29437339943972</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>175.3318063516142</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>57.55981668760509</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2060135747428</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767924</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671897</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>174.3961722021799</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44.91302503951538</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068464</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>27.79734426348846</v>
       </c>
       <c r="R10" t="n">
-        <v>145.9534932992555</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>175.331806351614</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>168.6275146012203</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722621</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>97.54185816719648</v>
       </c>
       <c r="U13" t="n">
-        <v>255.4454628329759</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>65.78783178799314</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>134.0367616438391</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>21.63824106824998</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.5262552810684</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722621</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695609</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812118</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717215</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>210.5950626772375</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>132.616430926768</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>112.6683130937964</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>99.17988875728723</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,10 +3082,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>41.74133133758761</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>100.5140508960362</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3319,10 +3319,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>54.3264904208971</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>100.2207207382368</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>86.24032515900481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>89.67992556049255</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.41915764515163</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="C2" t="n">
-        <v>75.41915764515163</v>
+        <v>29.16303865286086</v>
       </c>
       <c r="D2" t="n">
-        <v>75.41915764515163</v>
+        <v>29.16303865286086</v>
       </c>
       <c r="E2" t="n">
-        <v>75.41915764515163</v>
+        <v>29.16303865286086</v>
       </c>
       <c r="F2" t="n">
-        <v>41.13641777246947</v>
+        <v>22.21753790365739</v>
       </c>
       <c r="G2" t="n">
         <v>6.853677899787311</v>
@@ -4336,16 +4336,16 @@
         <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>69.91621969634798</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="M2" t="n">
-        <v>69.91621969634798</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="N2" t="n">
-        <v>69.91621969634798</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="O2" t="n">
-        <v>103.5167330455638</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4360,22 +4360,22 @@
         <v>101.4769100231392</v>
       </c>
       <c r="T2" t="n">
-        <v>75.41915764515163</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U2" t="n">
-        <v>75.41915764515163</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V2" t="n">
-        <v>75.41915764515163</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W2" t="n">
-        <v>75.41915764515163</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="X2" t="n">
-        <v>75.41915764515163</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="Y2" t="n">
-        <v>75.41915764515163</v>
+        <v>32.91143027777485</v>
       </c>
     </row>
     <row r="3">
@@ -4388,40 +4388,40 @@
         <v>101.4769100231392</v>
       </c>
       <c r="C3" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="D3" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="E3" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="F3" t="n">
         <v>71.28067274328075</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
+        <v>71.28067274328075</v>
+      </c>
+      <c r="H3" t="n">
         <v>36.99793287059858</v>
-      </c>
-      <c r="E3" t="n">
-        <v>36.99793287059858</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.715192997916426</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>6.606010638615182</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>40.20652398783096</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L3" t="n">
-        <v>40.20652398783096</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="M3" t="n">
-        <v>40.20652398783096</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="N3" t="n">
-        <v>40.20652398783096</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="O3" t="n">
         <v>68.55862319738975</v>
@@ -4433,10 +4433,10 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S3" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T3" t="n">
         <v>101.4769100231392</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.28067274328075</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="C4" t="n">
-        <v>71.28067274328075</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="D4" t="n">
-        <v>71.28067274328075</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="E4" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="F4" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G4" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H4" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I4" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J4" t="n">
         <v>2.715192997916426</v>
@@ -4515,25 +4515,25 @@
         <v>135.7596498958213</v>
       </c>
       <c r="S4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T4" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="U4" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V4" t="n">
-        <v>71.28067274328075</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W4" t="n">
-        <v>71.28067274328075</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="X4" t="n">
-        <v>71.28067274328075</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="Y4" t="n">
-        <v>71.28067274328075</v>
+        <v>32.91143027777485</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="F5" t="n">
-        <v>80.81800802212544</v>
+        <v>69.23923170720566</v>
       </c>
       <c r="G5" t="n">
         <v>41.94824656477385</v>
@@ -4573,19 +4573,19 @@
         <v>3.078485107422247</v>
       </c>
       <c r="L5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="M5" t="n">
-        <v>39.63549575806142</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="N5" t="n">
-        <v>77.73174896241173</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="O5" t="n">
-        <v>115.828002166762</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="P5" t="n">
-        <v>153.9242553711123</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
@@ -4594,25 +4594,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="T5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="U5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.81800802212544</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="C6" t="n">
-        <v>80.81800802212544</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="D6" t="n">
         <v>41.94824656477385</v>
       </c>
       <c r="E6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H6" t="n">
         <v>3.078485107422247</v>
@@ -4649,10 +4649,10 @@
         <v>9.385105424419159</v>
       </c>
       <c r="K6" t="n">
-        <v>9.385105424419159</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="L6" t="n">
-        <v>9.385105424419159</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="M6" t="n">
         <v>47.48135862876946</v>
@@ -4670,28 +4670,28 @@
         <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T6" t="n">
-        <v>115.0544939137607</v>
+        <v>119.687769479477</v>
       </c>
       <c r="U6" t="n">
-        <v>115.0544939137607</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="V6" t="n">
-        <v>115.0544939137607</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="W6" t="n">
-        <v>115.0544939137607</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="X6" t="n">
-        <v>115.0544939137607</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="Y6" t="n">
-        <v>115.0544939137607</v>
+        <v>41.94824656477385</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D7" t="n">
-        <v>153.9242553711123</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="E7" t="n">
-        <v>153.9242553711123</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="F7" t="n">
-        <v>153.9242553711123</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="G7" t="n">
-        <v>134.7708509397922</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="H7" t="n">
-        <v>95.90108948244061</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="I7" t="n">
-        <v>57.03132802508901</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="J7" t="n">
         <v>18.16156656773741</v>
@@ -4746,31 +4746,31 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="R7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.5374921808491</v>
+        <v>198.0748799559328</v>
       </c>
       <c r="C8" t="n">
-        <v>648.5374921808491</v>
+        <v>198.0748799559328</v>
       </c>
       <c r="D8" t="n">
-        <v>520.3240652117267</v>
+        <v>198.0748799559328</v>
       </c>
       <c r="E8" t="n">
-        <v>520.3240652117267</v>
+        <v>198.0748799559328</v>
       </c>
       <c r="F8" t="n">
-        <v>343.2212305131267</v>
+        <v>191.1293792067294</v>
       </c>
       <c r="G8" t="n">
-        <v>166.1183958145267</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="H8" t="n">
-        <v>166.1183958145267</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812912</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="J8" t="n">
-        <v>14.02654450812912</v>
+        <v>132.7593507837326</v>
       </c>
       <c r="K8" t="n">
-        <v>187.605032796227</v>
+        <v>132.7593507837326</v>
       </c>
       <c r="L8" t="n">
-        <v>361.1835210843248</v>
+        <v>142.108318708841</v>
       </c>
       <c r="M8" t="n">
-        <v>403.2554866983779</v>
+        <v>184.1802843228944</v>
       </c>
       <c r="N8" t="n">
-        <v>450.6220290797851</v>
+        <v>340.1271429174793</v>
       </c>
       <c r="O8" t="n">
-        <v>482.0136506460901</v>
+        <v>371.5187644837847</v>
       </c>
       <c r="P8" t="n">
-        <v>545.097252771882</v>
+        <v>545.0972527718827</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.3272254064559</v>
+        <v>701.3272254064568</v>
       </c>
       <c r="R8" t="n">
-        <v>648.5374921808491</v>
+        <v>648.5374921808501</v>
       </c>
       <c r="S8" t="n">
-        <v>648.5374921808491</v>
+        <v>648.5374921808501</v>
       </c>
       <c r="T8" t="n">
-        <v>648.5374921808491</v>
+        <v>648.5374921808501</v>
       </c>
       <c r="U8" t="n">
-        <v>648.5374921808491</v>
+        <v>471.4346574822499</v>
       </c>
       <c r="V8" t="n">
-        <v>648.5374921808491</v>
+        <v>375.177714654533</v>
       </c>
       <c r="W8" t="n">
-        <v>648.5374921808491</v>
+        <v>198.0748799559328</v>
       </c>
       <c r="X8" t="n">
-        <v>648.5374921808491</v>
+        <v>198.0748799559328</v>
       </c>
       <c r="Y8" t="n">
-        <v>648.5374921808491</v>
+        <v>198.0748799559328</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>476.1401587611035</v>
+        <v>643.1859964290779</v>
       </c>
       <c r="C9" t="n">
-        <v>476.1401587611035</v>
+        <v>468.7329671479509</v>
       </c>
       <c r="D9" t="n">
-        <v>327.2057490998523</v>
+        <v>319.7985574866997</v>
       </c>
       <c r="E9" t="n">
-        <v>327.2057490998523</v>
+        <v>160.5611024812442</v>
       </c>
       <c r="F9" t="n">
-        <v>180.6711911267373</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="G9" t="n">
-        <v>180.6711911267373</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="H9" t="n">
-        <v>75.41259155628997</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812912</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="J9" t="n">
-        <v>91.04961084172217</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="K9" t="n">
-        <v>160.7542608142885</v>
+        <v>106.0949334332387</v>
       </c>
       <c r="L9" t="n">
-        <v>202.2965943422105</v>
+        <v>147.637266961161</v>
       </c>
       <c r="M9" t="n">
-        <v>270.1314063162763</v>
+        <v>215.4720789352271</v>
       </c>
       <c r="N9" t="n">
-        <v>354.1702488302603</v>
+        <v>299.5109214492114</v>
       </c>
       <c r="O9" t="n">
-        <v>527.7487371183581</v>
+        <v>354.1702488302607</v>
       </c>
       <c r="P9" t="n">
-        <v>701.3272254064559</v>
+        <v>527.7487371183588</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.3272254064559</v>
+        <v>701.3272254064568</v>
       </c>
       <c r="R9" t="n">
-        <v>652.2979084602752</v>
+        <v>701.3272254064568</v>
       </c>
       <c r="S9" t="n">
-        <v>652.2979084602752</v>
+        <v>701.3272254064568</v>
       </c>
       <c r="T9" t="n">
-        <v>652.2979084602752</v>
+        <v>701.3272254064568</v>
       </c>
       <c r="U9" t="n">
-        <v>652.2979084602752</v>
+        <v>701.3272254064568</v>
       </c>
       <c r="V9" t="n">
-        <v>476.1401587611035</v>
+        <v>701.3272254064568</v>
       </c>
       <c r="W9" t="n">
-        <v>476.1401587611035</v>
+        <v>701.3272254064568</v>
       </c>
       <c r="X9" t="n">
-        <v>476.1401587611035</v>
+        <v>701.3272254064568</v>
       </c>
       <c r="Y9" t="n">
-        <v>476.1401587611035</v>
+        <v>701.3272254064568</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.4657968689916</v>
+        <v>627.8824079286752</v>
       </c>
       <c r="C10" t="n">
-        <v>206.4657968689916</v>
+        <v>458.9462250007683</v>
       </c>
       <c r="D10" t="n">
-        <v>206.4657968689916</v>
+        <v>308.8295855884326</v>
       </c>
       <c r="E10" t="n">
-        <v>58.55270328659846</v>
+        <v>160.9164920060395</v>
       </c>
       <c r="F10" t="n">
-        <v>58.55270328659846</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="G10" t="n">
-        <v>58.55270328659846</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="H10" t="n">
-        <v>58.55270328659846</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="I10" t="n">
-        <v>58.55270328659846</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812912</v>
+        <v>14.02654450812914</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288356</v>
+        <v>72.14931057288368</v>
       </c>
       <c r="L10" t="n">
-        <v>202.052874770759</v>
+        <v>202.0528747707594</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882333</v>
+        <v>349.4070924882338</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831099</v>
+        <v>498.6921726831106</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189905</v>
+        <v>620.5648112189913</v>
       </c>
       <c r="P10" t="n">
-        <v>701.3272254064559</v>
+        <v>701.3272254064568</v>
       </c>
       <c r="Q10" t="n">
-        <v>701.3272254064559</v>
+        <v>673.2490998877817</v>
       </c>
       <c r="R10" t="n">
-        <v>553.899454397107</v>
+        <v>673.2490998877817</v>
       </c>
       <c r="S10" t="n">
-        <v>553.899454397107</v>
+        <v>673.2490998877817</v>
       </c>
       <c r="T10" t="n">
-        <v>553.899454397107</v>
+        <v>673.2490998877817</v>
       </c>
       <c r="U10" t="n">
-        <v>553.899454397107</v>
+        <v>673.2490998877817</v>
       </c>
       <c r="V10" t="n">
-        <v>376.796619698507</v>
+        <v>673.2490998877817</v>
       </c>
       <c r="W10" t="n">
-        <v>376.796619698507</v>
+        <v>673.2490998877817</v>
       </c>
       <c r="X10" t="n">
-        <v>206.4657968689916</v>
+        <v>673.2490998877817</v>
       </c>
       <c r="Y10" t="n">
-        <v>206.4657968689916</v>
+        <v>673.2490998877817</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.290194822295</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.605706616408</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.188536579448</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.19898568143</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,16 +5266,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
@@ -5302,19 +5302,19 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.3164745246301</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>701.3802915967232</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>551.2636521843874</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.7575184984</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.96493935487</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5600,16 +5600,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290468</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5718,7 +5718,7 @@
         <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>868.6673633290468</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,37 +5740,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5779,19 +5779,19 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5840,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558406</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6025,16 +6025,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.8158034133954</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1475.663568322143</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1186.246398285183</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>958.2568473871653</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>737.4642682436352</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111716</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6314,16 +6314,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3079.453861511889</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>2910.517678583983</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>2760.401039171647</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3999.301626420637</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3709.884456383676</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3481.894905485659</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>3261.102326342129</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6551,16 +6551,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>417.7969033733018</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797747</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111716</v>
@@ -6709,7 +6709,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6718,28 +6718,28 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,7 +6949,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6982,7 +6982,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.547769317909</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C37" t="n">
-        <v>593.6115863900021</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D37" t="n">
-        <v>443.4949469776664</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>295.5818533952732</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>148.6919058973629</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>148.6919058973629</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2162.875197984421</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,34 +7390,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7551,22 +7551,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7630,22 +7630,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7672,16 +7672,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.8692823226939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>473.9330993947871</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>323.8164599824514</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>175.9033664000582</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>824.5177471529337</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
-        <v>255.1065912093878</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
         <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>212.9051825663978</v>
+        <v>245.4737854454458</v>
       </c>
       <c r="O2" t="n">
         <v>248.4501999472249</v>
       </c>
       <c r="P2" t="n">
-        <v>250.4976661837099</v>
+        <v>251.8689757786171</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>160.3750816220401</v>
       </c>
       <c r="M3" t="n">
         <v>129.5917403577182</v>
@@ -8072,7 +8072,7 @@
         <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>159.4573042434636</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>158.4618986107626</v>
@@ -8221,13 +8221,13 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>252.0299206180583</v>
       </c>
       <c r="M5" t="n">
-        <v>242.5511922549844</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>242.7727963709657</v>
+        <v>236.0050783192468</v>
       </c>
       <c r="O5" t="n">
         <v>244.8579146936526</v>
@@ -8236,7 +8236,7 @@
         <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>161.5285106728731</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>49.16448762095933</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>197.7656001854797</v>
+        <v>22.43379383386537</v>
       </c>
       <c r="L8" t="n">
-        <v>165.8884044070604</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>109.6770870840174</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>71.50765681690775</v>
+        <v>183.118652940449</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>48.28995823576928</v>
       </c>
       <c r="K9" t="n">
-        <v>73.99970008342602</v>
+        <v>96.58933538902508</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>120.1203645525746</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>150.5481065218791</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.85618372286126</v>
+        <v>209.1879900744753</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.292112491659494e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-1.53449838223952e-12</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-5.458725572646025e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="U13" t="n">
-        <v>30.73901155626828</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>80.64613085857603</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>152.147712745405</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.0583980710264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405067</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>41.54258064659055</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>47.21554925516926</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>33.76564955277276</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>46.24115926564401</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5054897610402</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>186.0089474405548</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>85.96822242532676</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>117.1847295890515</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>139.4693302300323</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>127.7255247667957</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
@@ -26334,22 +26334,22 @@
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365053</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365055</v>
@@ -26371,13 +26371,13 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.4026003638</v>
+        <v>343539.4026003643</v>
       </c>
       <c r="E3" t="n">
         <v>1086298.016192727</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>8880.174459335487</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491171</v>
+        <v>1168.747045491112</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.6912723038</v>
+        <v>34635.6912723039</v>
       </c>
       <c r="M3" t="n">
         <v>248550.2087575372</v>
@@ -26420,46 +26420,46 @@
         <v>400260.8332988868</v>
       </c>
       <c r="C4" t="n">
-        <v>397057.3584744652</v>
+        <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.7657712362</v>
+        <v>305665.7657712361</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731947</v>
+        <v>8117.312426731939</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731938</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731893</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731942</v>
+        <v>8117.31242673193</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731938</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731941</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731893</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.9356668595</v>
+        <v>52713.93566685953</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227881.7926457908</v>
+        <v>227881.792645791</v>
       </c>
       <c r="C6" t="n">
         <v>251695.9231049011</v>
       </c>
       <c r="D6" t="n">
-        <v>-4033.599653818179</v>
+        <v>-4033.599653819198</v>
       </c>
       <c r="E6" t="n">
-        <v>-509463.248706861</v>
+        <v>-509810.6279612174</v>
       </c>
       <c r="F6" t="n">
-        <v>576834.7674858666</v>
+        <v>576487.3882315096</v>
       </c>
       <c r="G6" t="n">
-        <v>576834.7674858666</v>
+        <v>576487.3882315096</v>
       </c>
       <c r="H6" t="n">
-        <v>576834.7674858666</v>
+        <v>576487.3882315096</v>
       </c>
       <c r="I6" t="n">
-        <v>576834.7674858668</v>
+        <v>576487.3882315096</v>
       </c>
       <c r="J6" t="n">
-        <v>567954.593026531</v>
+        <v>567607.2137721739</v>
       </c>
       <c r="K6" t="n">
-        <v>575666.0204403752</v>
+        <v>575318.6411860182</v>
       </c>
       <c r="L6" t="n">
-        <v>542199.0762135629</v>
+        <v>541851.6969592057</v>
       </c>
       <c r="M6" t="n">
-        <v>328284.5587283291</v>
+        <v>327937.1794739722</v>
       </c>
       <c r="N6" t="n">
-        <v>576834.7674858666</v>
+        <v>576487.3882315094</v>
       </c>
       <c r="O6" t="n">
-        <v>576834.7674858666</v>
+        <v>576487.3882315096</v>
       </c>
       <c r="P6" t="n">
-        <v>576834.7674858664</v>
+        <v>576487.3882315094</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523566</v>
+        <v>386.5211853523571</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,16 +26795,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.331806351614</v>
+        <v>175.3318063516142</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.4999246332312</v>
+        <v>351.4999246332318</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4543149893173</v>
+        <v>981.4543149893168</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.8507425088359</v>
+        <v>136.8507425088361</v>
       </c>
       <c r="E4" t="n">
         <v>997.3764817480344</v>
@@ -27038,13 +27038,13 @@
         <v>33.93991247395502</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822739</v>
+        <v>4.541151368822511</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088361</v>
+        <v>136.8507425088363</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480342</v>
+        <v>997.3764817480344</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088359</v>
+        <v>136.8507425088361</v>
       </c>
       <c r="M4" t="n">
         <v>997.3764817480344</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>361.5619840623427</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>372.9361332677561</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>381.270308929876</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27432,16 +27432,16 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>196.8936854326919</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>293.8123459961796</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>315.3010562434577</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>142.8142240812559</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>113.5051530906834</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>111.1292999194285</v>
+        <v>115.174937486324</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>77.81746130333066</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>53.75242741433431</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>63.14454955308224</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>166.0252945351195</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>112.4940501726138</v>
+        <v>116.5396877395093</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>56.48524998443612</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
         <v>17.44799951871617</v>
@@ -27587,19 +27587,19 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>189.3534617169419</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>193.8283607270673</v>
       </c>
       <c r="U4" t="n">
-        <v>252.3768532711237</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>222.2433684167682</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>252.5830858626357</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>372.9819247089925</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>376.6808846845414</v>
+        <v>388.1438732363119</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27666,7 +27666,7 @@
         <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>167.3307766836197</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132.6390626171484</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>108.9640017218607</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>119.1640166126229</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,7 +27712,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>73.02686326066636</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.99978005760148</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>165.9669799394529</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>187.4553623994157</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>194.3195233066472</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>129.6536026312054</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>107.9528988037911</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>106.9399841801532</v>
       </c>
       <c r="G7" t="n">
-        <v>148.9659558783518</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>123.1846202550991</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>115.0702253392529</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>50.4131925917203</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>42.39276904032837</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>227.7517489212518</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.5442393900975</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>238.4170771520543</v>
+        <v>238.4170771520541</v>
       </c>
       <c r="H8" t="n">
         <v>323.5613947208332</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>150.5709327933336</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>216.2938536289356</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2213445869191</v>
+        <v>75.88953823530494</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>232.4578850706952</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>173.9091623657988</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>108.9733669622622</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27949,10 +27949,10 @@
         <v>136.5121319720754</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>104.2060135747428</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>60.77218657767919</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>48.53902377671889</v>
       </c>
       <c r="S9" t="n">
         <v>156.2405558211281</v>
@@ -27991,7 +27991,7 @@
         <v>225.8866856868212</v>
       </c>
       <c r="V9" t="n">
-        <v>58.40441494724536</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>134.9189551424219</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.2939739422496</v>
@@ -28034,7 +28034,7 @@
         <v>134.4896211379862</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.08089719068457</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.79734426348855</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>145.9534932992554</v>
       </c>
       <c r="S10" t="n">
         <v>211.8696945563088</v>
       </c>
       <c r="T10" t="n">
-        <v>224.967475377206</v>
+        <v>224.9674753772059</v>
       </c>
       <c r="U10" t="n">
         <v>286.2810108792431</v>
       </c>
       <c r="V10" t="n">
-        <v>76.80583697221402</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>57.08214078781685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-4.510600094633763e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-4.510600094633763e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,22 +28617,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-4.510600094633763e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
     </row>
     <row r="21">
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-4.510600094633763e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30711,10 +30711,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-4.510600094633763e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-9.648064949407792e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-6.440674018558037e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.553854011466759</v>
+        <v>1.553854011466761</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493395</v>
+        <v>15.91340739493397</v>
       </c>
       <c r="I8" t="n">
-        <v>59.90495677707228</v>
+        <v>59.90495677707236</v>
       </c>
       <c r="J8" t="n">
-        <v>131.881416905727</v>
+        <v>131.8814169057271</v>
       </c>
       <c r="K8" t="n">
-        <v>197.6560572111149</v>
+        <v>197.6560572111152</v>
       </c>
       <c r="L8" t="n">
-        <v>245.2098169145408</v>
+        <v>245.2098169145411</v>
       </c>
       <c r="M8" t="n">
-        <v>272.8431681909627</v>
+        <v>272.8431681909631</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010427</v>
+        <v>277.2580559010431</v>
       </c>
       <c r="O8" t="n">
-        <v>261.8069200745201</v>
+        <v>261.8069200745205</v>
       </c>
       <c r="P8" t="n">
-        <v>223.4461491664344</v>
+        <v>223.4461491664348</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.7987523807811</v>
+        <v>167.7987523807813</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779888</v>
+        <v>97.60728204779902</v>
       </c>
       <c r="S8" t="n">
-        <v>35.4084482862988</v>
+        <v>35.40844828629886</v>
       </c>
       <c r="T8" t="n">
-        <v>6.80199593519574</v>
+        <v>6.80199593519575</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173407</v>
+        <v>0.1243083209173409</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352576</v>
+        <v>0.8313851911352588</v>
       </c>
       <c r="H9" t="n">
-        <v>8.029430661753672</v>
+        <v>8.029430661753684</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62444627373584</v>
+        <v>28.62444627373588</v>
       </c>
       <c r="J9" t="n">
-        <v>78.5476684308973</v>
+        <v>78.54766843089742</v>
       </c>
       <c r="K9" t="n">
-        <v>134.2504762369595</v>
+        <v>134.2504762369597</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383813</v>
+        <v>180.5163328383815</v>
       </c>
       <c r="M9" t="n">
-        <v>210.6540460170343</v>
+        <v>210.6540460170346</v>
       </c>
       <c r="N9" t="n">
-        <v>216.2294317944282</v>
+        <v>216.2294317944286</v>
       </c>
       <c r="O9" t="n">
-        <v>197.8076862434838</v>
+        <v>197.8076862434841</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440651</v>
+        <v>158.7581072440653</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631603</v>
+        <v>106.1255903631604</v>
       </c>
       <c r="R9" t="n">
-        <v>51.61881037592416</v>
+        <v>51.61881037592424</v>
       </c>
       <c r="S9" t="n">
-        <v>15.44261528270971</v>
+        <v>15.44261528270973</v>
       </c>
       <c r="T9" t="n">
-        <v>3.351065748479392</v>
+        <v>3.351065748479397</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05469639415363538</v>
+        <v>0.05469639415363547</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6970054162091674</v>
+        <v>0.6970054162091684</v>
       </c>
       <c r="H10" t="n">
-        <v>6.197011791386966</v>
+        <v>6.197011791386975</v>
       </c>
       <c r="I10" t="n">
-        <v>20.96085378927206</v>
+        <v>20.96085378927209</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598814</v>
+        <v>49.27828292598821</v>
       </c>
       <c r="K10" t="n">
-        <v>80.97935653775599</v>
+        <v>80.9793565377561</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516793</v>
+        <v>103.6256961516795</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972243</v>
+        <v>109.2587671972245</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186266</v>
+        <v>106.6608379186267</v>
       </c>
       <c r="O10" t="n">
-        <v>98.51854737472854</v>
+        <v>98.5185473747287</v>
       </c>
       <c r="P10" t="n">
-        <v>84.29963688406146</v>
+        <v>84.29963688406158</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.36469898820584</v>
+        <v>58.36469898820592</v>
       </c>
       <c r="R10" t="n">
-        <v>31.33989807791401</v>
+        <v>31.33989807791406</v>
       </c>
       <c r="S10" t="n">
-        <v>12.1469034806634</v>
+        <v>12.14690348066341</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075533</v>
+        <v>2.978114051075537</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777282</v>
+        <v>0.03801847724777287</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>639.47033547631</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32320,19 +32320,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>309.7666854143572</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32791,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>210.3948924365565</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32809,7 +32809,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N27" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>576.0573465136306</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34704,19 +34704,19 @@
         <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="O2" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="P2" t="n">
-        <v>32.56860287904804</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>28.63848405005938</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>33.93991247395533</v>
@@ -34941,13 +34941,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="M5" t="n">
-        <v>36.92627338448402</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>38.48106384277808</v>
+        <v>31.71334579105918</v>
       </c>
       <c r="O5" t="n">
         <v>38.48106384277808</v>
@@ -34956,7 +34956,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>119.9321275511146</v>
       </c>
       <c r="K8" t="n">
-        <v>175.331806351614</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>175.331806351614</v>
+        <v>9.443401944553869</v>
       </c>
       <c r="M8" t="n">
-        <v>42.49693496368999</v>
+        <v>42.49693496369039</v>
       </c>
       <c r="N8" t="n">
-        <v>47.84499230445175</v>
+        <v>157.5220793884695</v>
       </c>
       <c r="O8" t="n">
-        <v>31.70870865283334</v>
+        <v>31.70870865283374</v>
       </c>
       <c r="P8" t="n">
-        <v>63.72081022807264</v>
+        <v>175.3318063516142</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.8080531662363</v>
+        <v>157.8080531662365</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>77.80107710463945</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>70.40873734602657</v>
+        <v>92.99837265162583</v>
       </c>
       <c r="L9" t="n">
-        <v>41.96195305850708</v>
+        <v>41.96195305850733</v>
       </c>
       <c r="M9" t="n">
-        <v>68.52001209501597</v>
+        <v>68.52001209501628</v>
       </c>
       <c r="N9" t="n">
-        <v>84.88771971109492</v>
+        <v>84.88771971109526</v>
       </c>
       <c r="O9" t="n">
-        <v>175.331806351614</v>
+        <v>55.21144179903968</v>
       </c>
       <c r="P9" t="n">
-        <v>175.331806351614</v>
+        <v>175.3318063516142</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>175.3318063516142</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187314</v>
+        <v>58.70986471187325</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119955</v>
+        <v>131.2157214119956</v>
       </c>
       <c r="M10" t="n">
-        <v>148.8426441590649</v>
+        <v>148.8426441590651</v>
       </c>
       <c r="N10" t="n">
-        <v>150.7930102978552</v>
+        <v>150.7930102978553</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1036752887682</v>
+        <v>123.1036752887684</v>
       </c>
       <c r="P10" t="n">
-        <v>81.57819614895494</v>
+        <v>81.57819614895507</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35895,13 +35895,13 @@
         <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>171.212305634483</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36208,22 +36208,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>68.26085851453816</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,13 +36846,13 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36919,19 +36919,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,19 +37393,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.4611020691861</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2917657.827871241</v>
+        <v>2919418.358174027</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8660279.734952763</v>
+        <v>8660279.734952761</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.710907708664856</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>18.92112911249622</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,58 +740,58 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.89427490705984</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>29.89427490705985</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -822,23 +822,23 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E4" t="n">
+        <v>33.93991247395533</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33.93991247395533</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>29.89427490705985</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G5" t="n">
-        <v>27.0180752910075</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,20 +983,20 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>33.89412103271894</v>
       </c>
-      <c r="U6" t="n">
+      <c r="Y6" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="V6" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>18.96187038700693</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="E7" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="F7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>175.3318063516142</v>
+        <v>13.74888350366829</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589335066</v>
+        <v>52.26183589335081</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>175.3318063516142</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>95.29437339943972</v>
+        <v>81.54548989577106</v>
       </c>
       <c r="W8" t="n">
-        <v>175.3318063516142</v>
+        <v>175.331806351614</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>175.331806351614</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>175.331806351614</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.55981668760509</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>48.53902377671897</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>175.331806351614</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>175.331806351614</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>105.8932312577826</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>175.331806351614</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.91302503951538</v>
+        <v>175.331806351614</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.08089719068464</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.79734426348846</v>
+        <v>27.79734426348855</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>82.55401358032836</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>175.331806351614</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>175.331806351614</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>97.54185816719648</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>151.8518831495024</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>134.0367616438391</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>23.05950344416431</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.154082144413</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>21.63824106824998</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>23.10998325717215</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.616430926768</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>100.5140508960362</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3319,7 +3319,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881293</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>100.2207207382368</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>54.26758323426916</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="C2" t="n">
-        <v>29.16303865286086</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="D2" t="n">
-        <v>29.16303865286086</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="E2" t="n">
-        <v>29.16303865286086</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="F2" t="n">
-        <v>22.21753790365739</v>
+        <v>60.24866940125354</v>
       </c>
       <c r="G2" t="n">
-        <v>6.853677899787311</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="H2" t="n">
-        <v>6.853677899787311</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="I2" t="n">
         <v>6.853677899787311</v>
@@ -4333,13 +4333,13 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>36.31570634713221</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="L2" t="n">
-        <v>36.31570634713221</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="M2" t="n">
-        <v>36.31570634713221</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="N2" t="n">
         <v>68.55862319738975</v>
@@ -4366,16 +4366,16 @@
         <v>101.4769100231392</v>
       </c>
       <c r="V2" t="n">
-        <v>67.19417015045701</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="W2" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X2" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y2" t="n">
-        <v>32.91143027777485</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="3">
@@ -4388,22 +4388,22 @@
         <v>101.4769100231392</v>
       </c>
       <c r="C3" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="D3" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="E3" t="n">
-        <v>101.4769100231392</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="F3" t="n">
-        <v>71.28067274328075</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="G3" t="n">
-        <v>71.28067274328075</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="H3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
@@ -4412,10 +4412,10 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>36.31570634713221</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="L3" t="n">
-        <v>68.55862319738975</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="M3" t="n">
         <v>68.55862319738975</v>
@@ -4433,10 +4433,10 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="S3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="T3" t="n">
         <v>101.4769100231392</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="C4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="D4" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67.19417015045701</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67.19417015045701</v>
+      </c>
+      <c r="G4" t="n">
         <v>32.91143027777485</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>32.91143027777485</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.91143027777485</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.715192997916426</v>
       </c>
       <c r="I4" t="n">
         <v>2.715192997916426</v>
@@ -4515,25 +4515,25 @@
         <v>135.7596498958213</v>
       </c>
       <c r="S4" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="T4" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="U4" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="V4" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="W4" t="n">
-        <v>32.91143027777485</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="X4" t="n">
-        <v>32.91143027777485</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Y4" t="n">
-        <v>32.91143027777485</v>
+        <v>135.7596498958213</v>
       </c>
     </row>
     <row r="5">
@@ -4555,13 +4555,13 @@
         <v>76.18473245640914</v>
       </c>
       <c r="F5" t="n">
-        <v>69.23923170720566</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="G5" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H5" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I5" t="n">
         <v>3.078485107422247</v>
@@ -4573,19 +4573,19 @@
         <v>3.078485107422247</v>
       </c>
       <c r="L5" t="n">
-        <v>41.17473831177255</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="M5" t="n">
-        <v>41.17473831177255</v>
+        <v>39.63549575806142</v>
       </c>
       <c r="N5" t="n">
-        <v>72.57095064492114</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="O5" t="n">
-        <v>110.6672038492714</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P5" t="n">
-        <v>148.7634570536217</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
@@ -4631,40 +4631,40 @@
         <v>41.94824656477385</v>
       </c>
       <c r="E6" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="F6" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G6" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="H6" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="I6" t="n">
         <v>3.078485107422247</v>
       </c>
       <c r="J6" t="n">
-        <v>9.385105424419159</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K6" t="n">
-        <v>47.48135862876946</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="L6" t="n">
-        <v>47.48135862876946</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="M6" t="n">
-        <v>47.48135862876946</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="N6" t="n">
-        <v>47.48135862876946</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="O6" t="n">
-        <v>77.73174896241173</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="P6" t="n">
-        <v>115.828002166762</v>
+        <v>117.3672447204732</v>
       </c>
       <c r="Q6" t="n">
         <v>153.9242553711123</v>
@@ -4676,22 +4676,22 @@
         <v>153.9242553711123</v>
       </c>
       <c r="T6" t="n">
+        <v>153.9242553711123</v>
+      </c>
+      <c r="U6" t="n">
+        <v>153.9242553711123</v>
+      </c>
+      <c r="V6" t="n">
+        <v>153.9242553711123</v>
+      </c>
+      <c r="W6" t="n">
+        <v>153.9242553711123</v>
+      </c>
+      <c r="X6" t="n">
         <v>119.687769479477</v>
       </c>
-      <c r="U6" t="n">
+      <c r="Y6" t="n">
         <v>80.81800802212544</v>
-      </c>
-      <c r="V6" t="n">
-        <v>41.94824656477385</v>
-      </c>
-      <c r="W6" t="n">
-        <v>41.94824656477385</v>
-      </c>
-      <c r="X6" t="n">
-        <v>41.94824656477385</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>41.94824656477385</v>
       </c>
     </row>
     <row r="7">
@@ -4707,22 +4707,22 @@
         <v>115.0544939137607</v>
       </c>
       <c r="D7" t="n">
-        <v>95.90108948244061</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E7" t="n">
-        <v>57.03132802508901</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="F7" t="n">
-        <v>18.16156656773741</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="G7" t="n">
-        <v>18.16156656773741</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="H7" t="n">
-        <v>18.16156656773741</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="I7" t="n">
-        <v>18.16156656773741</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="J7" t="n">
         <v>18.16156656773741</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.0748799559328</v>
+        <v>34.85980637214905</v>
       </c>
       <c r="C8" t="n">
-        <v>198.0748799559328</v>
+        <v>34.85980637214905</v>
       </c>
       <c r="D8" t="n">
-        <v>198.0748799559328</v>
+        <v>34.85980637214905</v>
       </c>
       <c r="E8" t="n">
-        <v>198.0748799559328</v>
+        <v>34.85980637214905</v>
       </c>
       <c r="F8" t="n">
-        <v>191.1293792067294</v>
+        <v>27.91430562294558</v>
       </c>
       <c r="G8" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="H8" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="J8" t="n">
-        <v>132.7593507837326</v>
+        <v>132.7593507837324</v>
       </c>
       <c r="K8" t="n">
-        <v>132.7593507837326</v>
+        <v>132.7593507837324</v>
       </c>
       <c r="L8" t="n">
-        <v>142.108318708841</v>
+        <v>306.3378390718302</v>
       </c>
       <c r="M8" t="n">
-        <v>184.1802843228944</v>
+        <v>466.3390888241698</v>
       </c>
       <c r="N8" t="n">
-        <v>340.1271429174793</v>
+        <v>513.705631205577</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5187644837847</v>
+        <v>545.097252771882</v>
       </c>
       <c r="P8" t="n">
-        <v>545.0972527718827</v>
+        <v>545.097252771882</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.3272254064568</v>
+        <v>701.3272254064559</v>
       </c>
       <c r="R8" t="n">
-        <v>648.5374921808501</v>
+        <v>648.5374921808491</v>
       </c>
       <c r="S8" t="n">
-        <v>648.5374921808501</v>
+        <v>648.5374921808491</v>
       </c>
       <c r="T8" t="n">
-        <v>648.5374921808501</v>
+        <v>648.5374921808491</v>
       </c>
       <c r="U8" t="n">
-        <v>471.4346574822499</v>
+        <v>648.5374921808491</v>
       </c>
       <c r="V8" t="n">
-        <v>375.177714654533</v>
+        <v>566.168310467949</v>
       </c>
       <c r="W8" t="n">
-        <v>198.0748799559328</v>
+        <v>389.0654757693491</v>
       </c>
       <c r="X8" t="n">
-        <v>198.0748799559328</v>
+        <v>211.962641070749</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.0748799559328</v>
+        <v>34.85980637214905</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>643.1859964290779</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="C9" t="n">
-        <v>468.7329671479509</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="D9" t="n">
-        <v>319.7985574866997</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="E9" t="n">
-        <v>160.5611024812442</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="F9" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="G9" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="H9" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="J9" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="K9" t="n">
-        <v>106.0949334332387</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="L9" t="n">
-        <v>147.637266961161</v>
+        <v>55.56887803605112</v>
       </c>
       <c r="M9" t="n">
-        <v>215.4720789352271</v>
+        <v>123.4036900101169</v>
       </c>
       <c r="N9" t="n">
-        <v>299.5109214492114</v>
+        <v>207.4425325241009</v>
       </c>
       <c r="O9" t="n">
-        <v>354.1702488302607</v>
+        <v>354.1702488302603</v>
       </c>
       <c r="P9" t="n">
-        <v>527.7487371183588</v>
+        <v>527.7487371183581</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.3272254064568</v>
+        <v>701.3272254064559</v>
       </c>
       <c r="R9" t="n">
-        <v>701.3272254064568</v>
+        <v>652.2979084602752</v>
       </c>
       <c r="S9" t="n">
-        <v>701.3272254064568</v>
+        <v>652.2979084602752</v>
       </c>
       <c r="T9" t="n">
-        <v>701.3272254064568</v>
+        <v>652.2979084602752</v>
       </c>
       <c r="U9" t="n">
-        <v>701.3272254064568</v>
+        <v>475.1950737616752</v>
       </c>
       <c r="V9" t="n">
-        <v>701.3272254064568</v>
+        <v>298.0922390630752</v>
       </c>
       <c r="W9" t="n">
-        <v>701.3272254064568</v>
+        <v>191.1293792067291</v>
       </c>
       <c r="X9" t="n">
-        <v>701.3272254064568</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.3272254064568</v>
+        <v>14.02654450812912</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.8824079286752</v>
+        <v>58.55270328659846</v>
       </c>
       <c r="C10" t="n">
-        <v>458.9462250007683</v>
+        <v>58.55270328659846</v>
       </c>
       <c r="D10" t="n">
-        <v>308.8295855884326</v>
+        <v>58.55270328659846</v>
       </c>
       <c r="E10" t="n">
-        <v>160.9164920060395</v>
+        <v>58.55270328659846</v>
       </c>
       <c r="F10" t="n">
-        <v>14.02654450812914</v>
+        <v>58.55270328659846</v>
       </c>
       <c r="G10" t="n">
-        <v>14.02654450812914</v>
+        <v>58.55270328659846</v>
       </c>
       <c r="H10" t="n">
-        <v>14.02654450812914</v>
+        <v>58.55270328659846</v>
       </c>
       <c r="I10" t="n">
-        <v>14.02654450812914</v>
+        <v>58.55270328659846</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812914</v>
+        <v>14.02654450812912</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288368</v>
+        <v>72.14931057288356</v>
       </c>
       <c r="L10" t="n">
-        <v>202.0528747707594</v>
+        <v>202.052874770759</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882338</v>
+        <v>349.4070924882333</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831106</v>
+        <v>498.6921726831099</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189913</v>
+        <v>620.5648112189905</v>
       </c>
       <c r="P10" t="n">
-        <v>701.3272254064568</v>
+        <v>701.3272254064559</v>
       </c>
       <c r="Q10" t="n">
-        <v>673.2490998877817</v>
+        <v>673.2490998877806</v>
       </c>
       <c r="R10" t="n">
-        <v>673.2490998877817</v>
+        <v>673.2490998877806</v>
       </c>
       <c r="S10" t="n">
-        <v>673.2490998877817</v>
+        <v>673.2490998877806</v>
       </c>
       <c r="T10" t="n">
-        <v>673.2490998877817</v>
+        <v>673.2490998877806</v>
       </c>
       <c r="U10" t="n">
-        <v>673.2490998877817</v>
+        <v>673.2490998877806</v>
       </c>
       <c r="V10" t="n">
-        <v>673.2490998877817</v>
+        <v>673.2490998877806</v>
       </c>
       <c r="W10" t="n">
-        <v>673.2490998877817</v>
+        <v>589.8612073823984</v>
       </c>
       <c r="X10" t="n">
-        <v>673.2490998877817</v>
+        <v>412.7583726837985</v>
       </c>
       <c r="Y10" t="n">
-        <v>673.2490998877817</v>
+        <v>235.6555379851985</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,46 +5029,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
         <v>378.192580311171</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.9279362553159</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1265.358531127103</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>1037.368980229086</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>816.5764010855556</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1842.070412183399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.385923977512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="17">
@@ -5494,46 +5494,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753335</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929404</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5901,10 +5901,10 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6025,16 +6025,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773693</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>117.1600804794589</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,19 +6302,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,22 +6536,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797747</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
         <v>929.7309773356194</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1332.172021309389</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2162.875197984421</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1873.799971328619</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1619.115483122732</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7192,31 +7192,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>251.5626541092265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249853</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951537</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7326,16 +7326,16 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7390,46 +7390,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>251.5626541092265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7681,7 +7681,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>984.5467179762953</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>242.2613672256909</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L2" t="n">
         <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>246.6698164773692</v>
       </c>
       <c r="N2" t="n">
-        <v>245.4737854454458</v>
+        <v>246.8450950403531</v>
       </c>
       <c r="O2" t="n">
         <v>248.4501999472249</v>
@@ -8060,13 +8060,13 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>163.7881088975641</v>
+        <v>162.4167993026568</v>
       </c>
       <c r="L3" t="n">
-        <v>160.3750816220401</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>163.5316528316735</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
@@ -8221,13 +8221,13 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>252.0299206180583</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>205.6249188705004</v>
+        <v>242.5511922549844</v>
       </c>
       <c r="N5" t="n">
-        <v>236.0050783192468</v>
+        <v>242.7727963709657</v>
       </c>
       <c r="O5" t="n">
         <v>244.8579146936526</v>
@@ -8236,7 +8236,7 @@
         <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>164.1585617237782</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>160.6795236990645</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>161.5285106728731</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>155.2295685195159</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
         <v>158.0709840006057</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.8471891366353</v>
+        <v>167.2923986783412</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>22.43379383386537</v>
+        <v>22.43379383386568</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>165.8884044070604</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>119.1204890285722</v>
       </c>
       <c r="N8" t="n">
-        <v>109.6770870840174</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>183.118652940449</v>
+        <v>7.786846588835118</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>48.28995823576928</v>
+        <v>48.28995823576939</v>
       </c>
       <c r="K9" t="n">
-        <v>96.58933538902508</v>
+        <v>3.590962737399451</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>92.99837265162665</v>
       </c>
       <c r="P9" t="n">
         <v>150.5481065218791</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1879900744753</v>
+        <v>209.1879900744752</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-6.250036804665917e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1.136594450213864e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1.53449838223952e-12</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-6.250036804665917e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-1.705028638821944e-12</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>73.85777223953474</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>152.147712745405</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>123.7828069546813</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.21554925516926</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>39.70888054695304</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>186.0089474405548</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>117.1847295890515</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>112.9792378643587</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846415</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365054</v>
@@ -26328,22 +26328,22 @@
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365053</v>
-      </c>
       <c r="L2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365054</v>
@@ -26352,10 +26352,10 @@
         <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365054</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.4026003643</v>
+        <v>343539.4026003638</v>
       </c>
       <c r="E3" t="n">
         <v>1086298.016192727</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>8880.174459335487</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491112</v>
+        <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.6912723039</v>
+        <v>34635.69127230378</v>
       </c>
       <c r="M3" t="n">
         <v>248550.2087575372</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.7657712361</v>
+        <v>305665.7657712363</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731973</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731939</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731952</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.31242673194</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731893</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.31242673193</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
+        <v>8117.312426731953</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8117.312426731926</v>
+      </c>
+      <c r="O4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="N4" t="n">
-        <v>8117.312426731934</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731934</v>
-      </c>
       <c r="P4" t="n">
-        <v>8117.312426731893</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.93566685953</v>
+        <v>52713.9356668595</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>227881.792645791</v>
       </c>
       <c r="C6" t="n">
-        <v>251695.9231049011</v>
+        <v>251695.923104901</v>
       </c>
       <c r="D6" t="n">
-        <v>-4033.599653819198</v>
+        <v>-4033.599653818004</v>
       </c>
       <c r="E6" t="n">
-        <v>-509810.6279612174</v>
+        <v>-509497.9866322966</v>
       </c>
       <c r="F6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.0295604307</v>
       </c>
       <c r="G6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="H6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.0295604307</v>
       </c>
       <c r="I6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.0295604311</v>
       </c>
       <c r="J6" t="n">
-        <v>567607.2137721739</v>
+        <v>567919.8551010953</v>
       </c>
       <c r="K6" t="n">
-        <v>575318.6411860182</v>
+        <v>575631.2825149398</v>
       </c>
       <c r="L6" t="n">
-        <v>541851.6969592057</v>
+        <v>542164.338288127</v>
       </c>
       <c r="M6" t="n">
-        <v>327937.1794739722</v>
+        <v>328249.8208028934</v>
       </c>
       <c r="N6" t="n">
-        <v>576487.3882315094</v>
+        <v>576800.0295604308</v>
       </c>
       <c r="O6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.0295604307</v>
       </c>
       <c r="P6" t="n">
-        <v>576487.3882315094</v>
+        <v>576800.0295604309</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523571</v>
+        <v>386.5211853523566</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.3318063516142</v>
+        <v>175.331806351614</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26965,13 +26965,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.4999246332318</v>
+        <v>351.4999246332312</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4543149893168</v>
+        <v>981.4543149893173</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.8507425088361</v>
+        <v>136.8507425088359</v>
       </c>
       <c r="E4" t="n">
         <v>997.3764817480344</v>
@@ -27038,10 +27038,10 @@
         <v>33.93991247395502</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822511</v>
+        <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088363</v>
+        <v>136.8507425088359</v>
       </c>
       <c r="M4" t="n">
         <v>997.3764817480344</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088361</v>
+        <v>136.8507425088359</v>
       </c>
       <c r="M4" t="n">
         <v>997.3764817480344</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>361.5619840623427</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>320.7431291467276</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>396.2890922913352</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>172.9692497154156</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>293.8123459961796</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>315.3010562434577</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>138.7685865143604</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5051530906834</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>115.174937486324</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>77.81746130333066</v>
+        <v>81.86309887022614</v>
       </c>
       <c r="I3" t="n">
-        <v>53.75242741433431</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>63.14454955308224</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>166.0252945351195</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.675560544257</v>
       </c>
       <c r="E4" t="n">
-        <v>116.5396877395093</v>
+        <v>112.4940501726138</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>134.0095673419535</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>124.3081955951509</v>
       </c>
       <c r="J4" t="n">
         <v>90.42516245839145</v>
@@ -27587,10 +27587,10 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>189.3534617169419</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>193.8283607270673</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>252.5830858626357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>368.3949818989333</v>
       </c>
       <c r="G5" t="n">
-        <v>388.1438732363119</v>
+        <v>381.2678274946005</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>166.5670582748677</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>128.0521198070892</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>119.1640166126229</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,7 +27715,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>48.32201337990931</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,22 +27748,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>165.9669799394529</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>187.4553623994157</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>194.3195233066472</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>171.8788641707585</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>167.2016319345263</v>
       </c>
     </row>
     <row r="7">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>129.6536026312054</v>
+        <v>110.1344091754343</v>
       </c>
       <c r="E7" t="n">
         <v>107.9528988037911</v>
       </c>
       <c r="F7" t="n">
-        <v>106.9399841801532</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
@@ -27797,7 +27797,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>69.93238604749146</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>238.4170771520541</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.5613947208332</v>
@@ -27909,19 +27909,19 @@
         <v>216.2938536289356</v>
       </c>
       <c r="U8" t="n">
-        <v>75.88953823530494</v>
+        <v>251.2213445869191</v>
       </c>
       <c r="V8" t="n">
-        <v>232.4578850706952</v>
+        <v>246.2067685743638</v>
       </c>
       <c r="W8" t="n">
-        <v>173.9091623657988</v>
+        <v>173.909162365799</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>194.3992943268551</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>210.9061323044396</v>
       </c>
     </row>
     <row r="9">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>108.9733669622622</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.5121319720754</v>
@@ -27952,7 +27952,7 @@
         <v>104.2060135747428</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767919</v>
+        <v>60.77218657767924</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671889</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>156.2405558211281</v>
@@ -27988,16 +27988,16 @@
         <v>196.8136629463422</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8866856868212</v>
+        <v>50.5548793352072</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>57.46878079781129</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>145.801751903137</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>30.4411788518635</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.9189551424219</v>
+        <v>4.50017383032332</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.2939739422496</v>
@@ -28034,7 +28034,7 @@
         <v>134.4896211379862</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068457</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>145.9534932992554</v>
+        <v>145.9534932992555</v>
       </c>
       <c r="S10" t="n">
         <v>211.8696945563088</v>
       </c>
       <c r="T10" t="n">
-        <v>224.9674753772059</v>
+        <v>224.967475377206</v>
       </c>
       <c r="U10" t="n">
         <v>286.2810108792431</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.9689847562626</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>50.37784903742318</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>43.25284700048081</v>
       </c>
     </row>
     <row r="11">
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.510600094633763e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.510600094633763e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,22 +28617,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-4.510600094633763e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.510600094633763e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30711,10 +30711,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.510600094633763e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-9.648064949407792e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.553854011466761</v>
+        <v>1.553854011466759</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493397</v>
+        <v>15.91340739493395</v>
       </c>
       <c r="I8" t="n">
-        <v>59.90495677707236</v>
+        <v>59.90495677707228</v>
       </c>
       <c r="J8" t="n">
-        <v>131.8814169057271</v>
+        <v>131.881416905727</v>
       </c>
       <c r="K8" t="n">
-        <v>197.6560572111152</v>
+        <v>197.6560572111149</v>
       </c>
       <c r="L8" t="n">
-        <v>245.2098169145411</v>
+        <v>245.2098169145408</v>
       </c>
       <c r="M8" t="n">
-        <v>272.8431681909631</v>
+        <v>272.8431681909627</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010431</v>
+        <v>277.2580559010427</v>
       </c>
       <c r="O8" t="n">
-        <v>261.8069200745205</v>
+        <v>261.8069200745201</v>
       </c>
       <c r="P8" t="n">
-        <v>223.4461491664348</v>
+        <v>223.4461491664344</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.7987523807813</v>
+        <v>167.7987523807811</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779902</v>
+        <v>97.60728204779888</v>
       </c>
       <c r="S8" t="n">
-        <v>35.40844828629886</v>
+        <v>35.4084482862988</v>
       </c>
       <c r="T8" t="n">
-        <v>6.80199593519575</v>
+        <v>6.80199593519574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173409</v>
+        <v>0.1243083209173407</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352588</v>
+        <v>0.8313851911352576</v>
       </c>
       <c r="H9" t="n">
-        <v>8.029430661753684</v>
+        <v>8.029430661753672</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62444627373588</v>
+        <v>28.62444627373584</v>
       </c>
       <c r="J9" t="n">
-        <v>78.54766843089742</v>
+        <v>78.5476684308973</v>
       </c>
       <c r="K9" t="n">
-        <v>134.2504762369597</v>
+        <v>134.2504762369595</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383815</v>
+        <v>180.5163328383813</v>
       </c>
       <c r="M9" t="n">
-        <v>210.6540460170346</v>
+        <v>210.6540460170343</v>
       </c>
       <c r="N9" t="n">
-        <v>216.2294317944286</v>
+        <v>216.2294317944282</v>
       </c>
       <c r="O9" t="n">
-        <v>197.8076862434841</v>
+        <v>197.8076862434838</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440653</v>
+        <v>158.7581072440651</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631604</v>
+        <v>106.1255903631603</v>
       </c>
       <c r="R9" t="n">
-        <v>51.61881037592424</v>
+        <v>51.61881037592416</v>
       </c>
       <c r="S9" t="n">
-        <v>15.44261528270973</v>
+        <v>15.44261528270971</v>
       </c>
       <c r="T9" t="n">
-        <v>3.351065748479397</v>
+        <v>3.351065748479392</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05469639415363547</v>
+        <v>0.05469639415363538</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6970054162091684</v>
+        <v>0.6970054162091674</v>
       </c>
       <c r="H10" t="n">
-        <v>6.197011791386975</v>
+        <v>6.197011791386966</v>
       </c>
       <c r="I10" t="n">
-        <v>20.96085378927209</v>
+        <v>20.96085378927206</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598821</v>
+        <v>49.27828292598814</v>
       </c>
       <c r="K10" t="n">
-        <v>80.9793565377561</v>
+        <v>80.97935653775599</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516795</v>
+        <v>103.6256961516793</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972245</v>
+        <v>109.2587671972243</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186267</v>
+        <v>106.6608379186266</v>
       </c>
       <c r="O10" t="n">
-        <v>98.5185473747287</v>
+        <v>98.51854737472854</v>
       </c>
       <c r="P10" t="n">
-        <v>84.29963688406158</v>
+        <v>84.29963688406146</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.36469898820592</v>
+        <v>58.36469898820584</v>
       </c>
       <c r="R10" t="n">
-        <v>31.33989807791406</v>
+        <v>31.33989807791401</v>
       </c>
       <c r="S10" t="n">
-        <v>12.14690348066341</v>
+        <v>12.1469034806634</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075537</v>
+        <v>2.978114051075533</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777287</v>
+        <v>0.03801847724777282</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>639.47033547631</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,10 +33034,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,10 +33271,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,22 +33970,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>146.0225991093084</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>209.9499448422519</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33994,10 +33994,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34207,19 +34207,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -34234,7 +34234,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34444,19 +34444,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>134.7284881171895</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32.56860287904802</v>
+      </c>
+      <c r="N2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>32.56860287904802</v>
       </c>
       <c r="O2" t="n">
         <v>33.93991247395533</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>32.56860287904802</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="L3" t="n">
-        <v>32.56860287904802</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>36.92627338448402</v>
+      </c>
+      <c r="N5" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>31.71334579105918</v>
       </c>
       <c r="O5" t="n">
         <v>38.48106384277808</v>
@@ -34956,7 +34956,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>30.55594983196189</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="Q6" t="n">
-        <v>38.48106384277808</v>
+        <v>36.92627338448403</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>119.9321275511146</v>
+        <v>119.9321275511144</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>9.443401944553869</v>
+        <v>175.331806351614</v>
       </c>
       <c r="M8" t="n">
-        <v>42.49693496369039</v>
+        <v>161.6174239922622</v>
       </c>
       <c r="N8" t="n">
-        <v>157.5220793884695</v>
+        <v>47.84499230445175</v>
       </c>
       <c r="O8" t="n">
-        <v>31.70870865283374</v>
+        <v>31.70870865283334</v>
       </c>
       <c r="P8" t="n">
-        <v>175.3318063516142</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.8080531662365</v>
+        <v>157.8080531662363</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>92.99837265162583</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>41.96195305850733</v>
+        <v>41.96195305850708</v>
       </c>
       <c r="M9" t="n">
-        <v>68.52001209501628</v>
+        <v>68.52001209501597</v>
       </c>
       <c r="N9" t="n">
-        <v>84.88771971109526</v>
+        <v>84.88771971109492</v>
       </c>
       <c r="O9" t="n">
-        <v>55.21144179903968</v>
+        <v>148.209814450666</v>
       </c>
       <c r="P9" t="n">
-        <v>175.3318063516142</v>
+        <v>175.331806351614</v>
       </c>
       <c r="Q9" t="n">
-        <v>175.3318063516142</v>
+        <v>175.331806351614</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187325</v>
+        <v>58.70986471187314</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119956</v>
+        <v>131.2157214119955</v>
       </c>
       <c r="M10" t="n">
-        <v>148.8426441590651</v>
+        <v>148.8426441590649</v>
       </c>
       <c r="N10" t="n">
-        <v>150.7930102978553</v>
+        <v>150.7930102978552</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1036752887684</v>
+        <v>123.1036752887682</v>
       </c>
       <c r="P10" t="n">
-        <v>81.57819614895507</v>
+        <v>81.57819614895494</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.1286233929767</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663299</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,10 +36682,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,10 +36919,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>8.181160134949373</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>71.3955650623777</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37642,10 +37642,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193518</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38113,13 +38113,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028592577</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
